--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/CD/10/seed3/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/CD/10/seed3/result_data_RandomForest.xlsx
@@ -494,7 +494,7 @@
         <v>-13.95</v>
       </c>
       <c r="D4" t="n">
-        <v>-7.668299999999999</v>
+        <v>-7.826700000000001</v>
       </c>
     </row>
     <row r="5">
@@ -575,7 +575,7 @@
         <v>6.17</v>
       </c>
       <c r="C10" t="n">
-        <v>-13.5067</v>
+        <v>-13.72049999999999</v>
       </c>
       <c r="D10" t="n">
         <v>-8.85</v>
@@ -603,10 +603,10 @@
         <v>4.54</v>
       </c>
       <c r="C12" t="n">
-        <v>-13.1691</v>
+        <v>-13.0023</v>
       </c>
       <c r="D12" t="n">
-        <v>-8.6891</v>
+        <v>-8.749899999999997</v>
       </c>
     </row>
     <row r="13">
@@ -676,7 +676,7 @@
         <v>-14.84</v>
       </c>
       <c r="D17" t="n">
-        <v>-8.188999999999991</v>
+        <v>-8.298399999999994</v>
       </c>
     </row>
     <row r="18">
@@ -687,7 +687,7 @@
         <v>4.35</v>
       </c>
       <c r="C18" t="n">
-        <v>-11.65929999999999</v>
+        <v>-11.57119999999999</v>
       </c>
       <c r="D18" t="n">
         <v>-6.27</v>
@@ -802,7 +802,7 @@
         <v>-10.59</v>
       </c>
       <c r="D26" t="n">
-        <v>-7.028000000000005</v>
+        <v>-7.397000000000005</v>
       </c>
     </row>
     <row r="27">
@@ -816,7 +816,7 @@
         <v>-11.92</v>
       </c>
       <c r="D27" t="n">
-        <v>-8.1678</v>
+        <v>-7.990699999999999</v>
       </c>
     </row>
     <row r="28">
@@ -830,7 +830,7 @@
         <v>-11.8</v>
       </c>
       <c r="D28" t="n">
-        <v>-8.155699999999998</v>
+        <v>-7.981</v>
       </c>
     </row>
     <row r="29">
@@ -953,10 +953,10 @@
         <v>9.41</v>
       </c>
       <c r="C37" t="n">
-        <v>-12.64130000000001</v>
+        <v>-12.55070000000001</v>
       </c>
       <c r="D37" t="n">
-        <v>-7.360699999999996</v>
+        <v>-7.327300000000003</v>
       </c>
     </row>
     <row r="38">
@@ -1205,7 +1205,7 @@
         <v>5.38</v>
       </c>
       <c r="C55" t="n">
-        <v>-13.22259999999999</v>
+        <v>-13.4038</v>
       </c>
       <c r="D55" t="n">
         <v>-10.06</v>
@@ -1348,7 +1348,7 @@
         <v>-11.86</v>
       </c>
       <c r="D65" t="n">
-        <v>-8.137100000000004</v>
+        <v>-8.030200000000001</v>
       </c>
     </row>
     <row r="66">
@@ -1387,7 +1387,7 @@
         <v>4.88</v>
       </c>
       <c r="C68" t="n">
-        <v>-11.0912</v>
+        <v>-11.2037</v>
       </c>
       <c r="D68" t="n">
         <v>-7.27</v>
@@ -1460,7 +1460,7 @@
         <v>-15.02</v>
       </c>
       <c r="D73" t="n">
-        <v>-8.0695</v>
+        <v>-8.4336</v>
       </c>
     </row>
     <row r="74">
@@ -1513,7 +1513,7 @@
         <v>10.09</v>
       </c>
       <c r="C77" t="n">
-        <v>-12.8533</v>
+        <v>-12.53350000000001</v>
       </c>
       <c r="D77" t="n">
         <v>-6.2</v>
@@ -1527,7 +1527,7 @@
         <v>9.640000000000001</v>
       </c>
       <c r="C78" t="n">
-        <v>-12.6172</v>
+        <v>-12.2861</v>
       </c>
       <c r="D78" t="n">
         <v>-6.53</v>
@@ -1614,7 +1614,7 @@
         <v>-12.28</v>
       </c>
       <c r="D84" t="n">
-        <v>-7.707899999999998</v>
+        <v>-7.585299999999997</v>
       </c>
     </row>
     <row r="85">
@@ -1628,7 +1628,7 @@
         <v>-13.1</v>
       </c>
       <c r="D85" t="n">
-        <v>-8.645899999999997</v>
+        <v>-8.628699999999995</v>
       </c>
     </row>
     <row r="86">
@@ -1740,7 +1740,7 @@
         <v>-10.09</v>
       </c>
       <c r="D93" t="n">
-        <v>-6.919599999999992</v>
+        <v>-6.68189999999999</v>
       </c>
     </row>
     <row r="94">
@@ -1768,7 +1768,7 @@
         <v>-11.3</v>
       </c>
       <c r="D95" t="n">
-        <v>-7.594599999999999</v>
+        <v>-7.555000000000003</v>
       </c>
     </row>
     <row r="96">
@@ -1810,7 +1810,7 @@
         <v>-10.59</v>
       </c>
       <c r="D98" t="n">
-        <v>-7.030000000000001</v>
+        <v>-7.437500000000007</v>
       </c>
     </row>
     <row r="99">
@@ -1824,7 +1824,7 @@
         <v>-13.93</v>
       </c>
       <c r="D99" t="n">
-        <v>-8.036900000000005</v>
+        <v>-8.054300000000005</v>
       </c>
     </row>
     <row r="100">
@@ -1852,7 +1852,7 @@
         <v>-15.77</v>
       </c>
       <c r="D101" t="n">
-        <v>-7.622999999999999</v>
+        <v>-7.6178</v>
       </c>
     </row>
     <row r="102">
